--- a/biology/Médecine/PAI-1/PAI-1.xlsx
+++ b/biology/Médecine/PAI-1/PAI-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'inhibiteur de l'activateur du plasminogène 1 aussi appelé PAI-1 pour plasminogen activator inhibitor-1 est le principal inhibiteur du tPA et de l'urokinase (uPA), les activateurs du plasminogène et par conséquent la fibrinolyse. C'est une protéine inhibitrice des protéases à sérine (serpine). 
 L'autre PAI, l'inhibiteur de l'activateur du plasminogène 2 (PAI-2) (en) est sécrété par le placenta et est présent en concentration non négligeable uniquement lors de la grossesse. De plus, la protéase nexine agit comme un inhibiteur du tPA et de l'urokinase. PAI-1 reste cependant le principal inhibiteur de l'activateur du plasminogène. 
@@ -512,7 +524,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gène du plasminogen activator inhibitor-1 est SERPINE1. Il est localisé sur le chromosome 7 humain (7q21.3-q22). Il existe un polymorphisme connu sous le nom de 4G/5G dans la région promotrice. L'allèle 5G est légèrement moins transcrite que la 4G.
 </t>
@@ -543,11 +557,13 @@
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">PAI-1 est principalement produit par l'endothélium mais il est aussi sécrété par d'autres tissus tel que le tissu adipeux. 
 PAI-1 inhibe les protéases à sérine tPA et l'urokinase/uPA et par conséquent il est un inhibiteur de la fibrinolyse, le mécanisme physiologique de lyse de caillots sanguins.
-Il favorise la formation d'une fibrose dans différents organes, sauf au niveau du cœur où il semble avoir un effet protecteur contre cette dernière[5], par le biais d'une inhibition de la voie du TGF béta[6].
+Il favorise la formation d'une fibrose dans différents organes, sauf au niveau du cœur où il semble avoir un effet protecteur contre cette dernière, par le biais d'une inhibition de la voie du TGF béta.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Rôle en pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les défiances congénitales en PAI-1 ont été rapportées ; la fibrinolyse n'étant pas inhibée, cela entraine une diathèse hémorragique. 
 PAI-1 est présent en quantité plus importante dans diverses pathologies comme dans un certain nombre de cancers ou dans l'obésité. Dans le cancer du sein, des taux élevés de PAI-1 sont associés à risque élevé de récidive. Avec l'urokinase (uPA), PAI-1 est utilisé comme biomarqueur pronostique dans un test uPA/PAI-1 utilisé en clinique. 
@@ -611,9 +629,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tiplaxtinine (PAI-039) est une petite molécule inhibitrice, qui a été étudiée pour une utilisation dans l'atténuation de remodelage des vaisseaux sanguins, causé par une hypertension artérielle et l'activation du système rénine-angiotensine[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tiplaxtinine (PAI-039) est une petite molécule inhibitrice, qui a été étudiée pour une utilisation dans l'atténuation de remodelage des vaisseaux sanguins, causé par une hypertension artérielle et l'activation du système rénine-angiotensine.
 </t>
         </is>
       </c>
